--- a/seagrass/initial_datasheets/MarineGEO_Seagrass-Epifauna_weighed_Datasheet_v0.4.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO_Seagrass-Epifauna_weighed_Datasheet_v0.4.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-epifauna\Fieldsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905FF9D-B86F-45C6-8E68-483DCCD04BEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170EB6A-2140-4ABB-AAC1-9B612E93B4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,6 +600,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -612,20 +630,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +642,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -648,12 +720,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,72 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1113,36 +1113,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
@@ -1151,384 +1151,384 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="37" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="35" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="35"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="34" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="35"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="41" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="25" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="6" t="s">
@@ -1542,38 +1542,55 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I21:K21"/>
@@ -1598,57 +1615,40 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
     <oddHeader>&amp;R&amp;"Calibri (Body)</oddHeader>
     <oddFooter xml:space="preserve">&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
 </oddFooter>
-    <firstFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;RPage __ of __</firstFooter>
+    <firstFooter>&amp;Lhttps://doi.org/10.25573/serc.14925114.v1</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/seagrass/initial_datasheets/MarineGEO_Seagrass-Epifauna_weighed_Datasheet_v0.4.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO_Seagrass-Epifauna_weighed_Datasheet_v0.4.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonnemanm\home\repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170EB6A-2140-4ABB-AAC1-9B612E93B4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AA102D-47C9-412C-9863-71F3B4249CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weighed_epifauna" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tin + sample dry mass (g)</t>
   </si>
@@ -98,62 +98,6 @@
   </si>
   <si>
     <r>
-      <t>Latitude of transect beginning</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue Light"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Latitude of transect ending</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue Light"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Longitude of transect ending</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue Light"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Longitude of transect beginning</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue Light"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
@@ -187,6 +131,15 @@
       </rPr>
       <t xml:space="preserve"> In Decimal Degrees to 5 decimal places (e.g. -43.12345, 142.12345)						</t>
     </r>
+  </si>
+  <si>
+    <t>Mesh bag length</t>
+  </si>
+  <si>
+    <t>Mesh bag diameter (opening)</t>
+  </si>
+  <si>
+    <t>Mesh size</t>
   </si>
 </sst>
 </file>
@@ -255,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -574,11 +527,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,50 +590,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -669,12 +689,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,32 +719,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1097,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="112" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1113,36 +1109,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
@@ -1151,384 +1147,382 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" ht="12.95" customHeight="1" thickBot="1">
+      <c r="A5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="12.95" customHeight="1" thickBot="1">
-      <c r="A5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
     </row>
     <row r="6" spans="1:14" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="30" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="32" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="6" t="s">
@@ -1541,20 +1535,76 @@
       <c r="B26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
+  <mergeCells count="106">
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="L22:N22"/>
@@ -1579,76 +1629,19 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
